--- a/demo/Results_rt/link/rt/Anova.xlsx
+++ b/demo/Results_rt/link/rt/Anova.xlsx
@@ -172,16 +172,16 @@
         <v>512</v>
       </c>
       <c r="D2" s="0">
-        <v>34629.1003469637</v>
+        <v>34629.100342822843</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.98543016596108834</v>
+        <v>0.98543016595937161</v>
       </c>
       <c r="G2" s="0">
-        <v>16.448095526858236</v>
+        <v>16.448095525874827</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
@@ -201,16 +201,16 @@
         <v>512</v>
       </c>
       <c r="D3" s="0">
-        <v>7.2944049206427035</v>
+        <v>7.2944049200926804</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0071461150133498297</v>
+        <v>0.0071461150155063269</v>
       </c>
       <c r="F3" s="0">
-        <v>0.014046762013076988</v>
+        <v>0.014046762012032692</v>
       </c>
       <c r="G3" s="0">
-        <v>0.23872062843943989</v>
+        <v>0.23872062843043973</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
@@ -230,16 +230,16 @@
         <v>512</v>
       </c>
       <c r="D4" s="0">
-        <v>14.749019832181293</v>
+        <v>14.749019833738394</v>
       </c>
       <c r="E4" s="0">
-        <v>5.9197926549625635e-07</v>
+        <v>5.9197926460807793e-07</v>
       </c>
       <c r="F4" s="0">
-        <v>0.054474878030299781</v>
+        <v>0.054474878035737584</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48005565810417516</v>
+        <v>0.48005565812951567</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
@@ -259,16 +259,16 @@
         <v>512</v>
       </c>
       <c r="D5" s="0">
-        <v>1.2649783577142861</v>
+        <v>1.2649783577159996</v>
       </c>
       <c r="E5" s="0">
-        <v>0.28312599094787516</v>
+        <v>0.28312599094739188</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0049170251069129041</v>
+        <v>0.0049170251069195316</v>
       </c>
       <c r="G5" s="0">
-        <v>0.14058907083868832</v>
+        <v>0.14058907083878353</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>15</v>

--- a/demo/Results_rt/link/rt/Anova.xlsx
+++ b/demo/Results_rt/link/rt/Anova.xlsx
@@ -69,7 +69,7 @@
     <t>***</t>
   </si>
   <si>
-    <t>**</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -169,19 +169,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D2" s="0">
-        <v>34629.100342822843</v>
+        <v>40738.47926089869</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.98543016595937161</v>
+        <v>0.98706159626068535</v>
       </c>
       <c r="G2" s="0">
-        <v>16.448095525874827</v>
+        <v>17.468747751963019</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
@@ -198,19 +198,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D3" s="0">
-        <v>7.2944049200926804</v>
+        <v>5.3635623236671846</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0071461150155063269</v>
+        <v>0.020939571881875785</v>
       </c>
       <c r="F3" s="0">
-        <v>0.014046762012032692</v>
+        <v>0.0099442429899418358</v>
       </c>
       <c r="G3" s="0">
-        <v>0.23872062843043973</v>
+        <v>0.20044075635083741</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
@@ -227,19 +227,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D4" s="0">
-        <v>14.749019833738394</v>
+        <v>20.711434969594457</v>
       </c>
       <c r="E4" s="0">
-        <v>5.9197926460807793e-07</v>
+        <v>2.1724756438246118e-09</v>
       </c>
       <c r="F4" s="0">
-        <v>0.054474878035737584</v>
+        <v>0.071986832820124982</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48005565812951567</v>
+        <v>0.55703112117409681</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
@@ -256,19 +256,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D5" s="0">
-        <v>1.2649783577159996</v>
+        <v>0.47048329409806261</v>
       </c>
       <c r="E5" s="0">
-        <v>0.28312599094739188</v>
+        <v>0.62495898286298845</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0049170251069195316</v>
+        <v>0.0017590101468532553</v>
       </c>
       <c r="G5" s="0">
-        <v>0.14058907083878353</v>
+        <v>0.083954981167839726</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>15</v>
